--- a/sd-040-ballot1-cibuild/ig/StructureDefinition-ror-organization-financial-help-type.xlsx
+++ b/sd-040-ballot1-cibuild/ig/StructureDefinition-ror-organization-financial-help-type.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.3.0</t>
+    <t>0.4.0-ballot-1</t>
   </si>
   <si>
     <t>Name</t>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-13T15:02:17+00:00</t>
+    <t>2024-03-13T16:17:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/sd-040-ballot1-cibuild/ig/StructureDefinition-ror-organization-financial-help-type.xlsx
+++ b/sd-040-ballot1-cibuild/ig/StructureDefinition-ror-organization-financial-help-type.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-13T16:17:04+00:00</t>
+    <t>2024-03-13T16:21:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
